--- a/static/download/2023/RP3_FLT_EFF_2023_Jan_Apr.xlsx
+++ b/static/download/2023/RP3_FLT_EFF_2023_Jan_Apr.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="156">
   <si>
     <t>Data source</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
   </si>
   <si>
     <t>Avg. horizontal en route inefficiency</t>
@@ -1383,7 +1380,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="13.5" customHeight="1">
@@ -1393,7 +1390,7 @@
       <c r="B4" s="16"/>
       <c r="C4" s="17"/>
       <c r="D4" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1401,33 +1398,33 @@
     </row>
     <row r="5" ht="38.25" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="D5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="E5" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="F5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="G5" s="23" t="s">
         <v>17</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="25" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="26">
         <v>42490.0</v>
@@ -1443,10 +1440,10 @@
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="26">
         <v>42855.0</v>
@@ -1462,10 +1459,10 @@
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="26">
         <v>43220.0</v>
@@ -1481,10 +1478,10 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="26">
         <v>43585.0</v>
@@ -1500,10 +1497,10 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="26">
         <v>43951.0</v>
@@ -1523,10 +1520,10 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="26">
         <v>44316.0</v>
@@ -1546,10 +1543,10 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="26">
         <v>44681.0</v>
@@ -1569,10 +1566,10 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="26">
         <v>45046.0</v>
@@ -1592,10 +1589,10 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="27"/>
@@ -1687,10 +1684,10 @@
     </row>
     <row r="4" ht="18.0" customHeight="1">
       <c r="A4" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="43" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
@@ -1701,24 +1698,24 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="49" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="50" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="49" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="49" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="52">
         <v>0.0456</v>
@@ -1733,7 +1730,7 @@
     </row>
     <row r="7">
       <c r="A7" s="55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="56">
         <v>0.0456</v>
@@ -1748,7 +1745,7 @@
     </row>
     <row r="8">
       <c r="A8" s="55" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="56">
         <v>0.0455</v>
@@ -1763,7 +1760,7 @@
     </row>
     <row r="9">
       <c r="A9" s="55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B9" s="56">
         <v>0.0454</v>
@@ -1778,7 +1775,7 @@
     </row>
     <row r="10">
       <c r="A10" s="55" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10" s="56">
         <v>0.0454</v>
@@ -1793,7 +1790,7 @@
     </row>
     <row r="11">
       <c r="A11" s="55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11" s="56">
         <v>0.0453</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="12">
       <c r="A12" s="55" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B12" s="56">
         <v>0.0453</v>
@@ -1823,7 +1820,7 @@
     </row>
     <row r="13">
       <c r="A13" s="55" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="56">
         <v>0.0453</v>
@@ -1838,7 +1835,7 @@
     </row>
     <row r="14">
       <c r="A14" s="55" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="56">
         <v>0.0453</v>
@@ -1853,7 +1850,7 @@
     </row>
     <row r="15">
       <c r="A15" s="55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B15" s="56">
         <v>0.0453</v>
@@ -1868,7 +1865,7 @@
     </row>
     <row r="16">
       <c r="A16" s="55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="58">
         <v>0.0452</v>
@@ -1883,7 +1880,7 @@
     </row>
     <row r="17">
       <c r="A17" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B17" s="60">
         <v>0.0453</v>
@@ -1898,7 +1895,7 @@
     </row>
     <row r="18">
       <c r="A18" s="51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B18" s="52">
         <v>0.0453</v>
@@ -1915,7 +1912,7 @@
     </row>
     <row r="19">
       <c r="A19" s="55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B19" s="56">
         <v>0.0452</v>
@@ -1932,7 +1929,7 @@
     </row>
     <row r="20">
       <c r="A20" s="55" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" s="56">
         <v>0.0451</v>
@@ -1949,7 +1946,7 @@
     </row>
     <row r="21">
       <c r="A21" s="55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" s="56">
         <v>0.0451</v>
@@ -1966,7 +1963,7 @@
     </row>
     <row r="22">
       <c r="A22" s="55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="56">
         <v>0.0449</v>
@@ -1983,7 +1980,7 @@
     </row>
     <row r="23">
       <c r="A23" s="55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="56">
         <v>0.0448</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="24">
       <c r="A24" s="55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="57">
         <v>0.0446</v>
@@ -2017,7 +2014,7 @@
     </row>
     <row r="25">
       <c r="A25" s="55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="57">
         <v>0.0444</v>
@@ -2034,7 +2031,7 @@
     </row>
     <row r="26">
       <c r="A26" s="55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B26" s="56">
         <v>0.0442</v>
@@ -2051,7 +2048,7 @@
     </row>
     <row r="27">
       <c r="A27" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B27" s="56">
         <v>0.044</v>
@@ -2068,7 +2065,7 @@
     </row>
     <row r="28">
       <c r="A28" s="55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B28" s="58">
         <v>0.044</v>
@@ -2085,7 +2082,7 @@
     </row>
     <row r="29">
       <c r="A29" s="59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B29" s="60">
         <v>0.0438</v>
@@ -2102,7 +2099,7 @@
     </row>
     <row r="30">
       <c r="A30" s="51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B30" s="52">
         <v>0.0437</v>
@@ -2119,7 +2116,7 @@
     </row>
     <row r="31">
       <c r="A31" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B31" s="56">
         <v>0.0436</v>
@@ -2136,7 +2133,7 @@
     </row>
     <row r="32">
       <c r="A32" s="55" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B32" s="56">
         <v>0.0436</v>
@@ -2153,7 +2150,7 @@
     </row>
     <row r="33">
       <c r="A33" s="55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" s="56">
         <v>0.0435</v>
@@ -2170,7 +2167,7 @@
     </row>
     <row r="34">
       <c r="A34" s="55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="56">
         <v>0.0435</v>
@@ -2187,7 +2184,7 @@
     </row>
     <row r="35">
       <c r="A35" s="55" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" s="56">
         <v>0.0435</v>
@@ -2204,7 +2201,7 @@
     </row>
     <row r="36">
       <c r="A36" s="55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B36" s="56">
         <v>0.0433</v>
@@ -2221,7 +2218,7 @@
     </row>
     <row r="37">
       <c r="A37" s="55" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B37" s="56">
         <v>0.043</v>
@@ -2238,7 +2235,7 @@
     </row>
     <row r="38">
       <c r="A38" s="55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B38" s="56">
         <v>0.0429</v>
@@ -2255,7 +2252,7 @@
     </row>
     <row r="39">
       <c r="A39" s="55" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B39" s="56">
         <v>0.0427</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="40">
       <c r="A40" s="55" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B40" s="58">
         <v>0.0427</v>
@@ -2289,7 +2286,7 @@
     </row>
     <row r="41">
       <c r="A41" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B41" s="60">
         <v>0.0426</v>
@@ -2306,7 +2303,7 @@
     </row>
     <row r="42">
       <c r="A42" s="51" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B42" s="52">
         <v>0.0425</v>
@@ -2323,7 +2320,7 @@
     </row>
     <row r="43">
       <c r="A43" s="55" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B43" s="56">
         <v>0.0426</v>
@@ -2340,7 +2337,7 @@
     </row>
     <row r="44">
       <c r="A44" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B44" s="56">
         <v>0.0428</v>
@@ -2357,7 +2354,7 @@
     </row>
     <row r="45">
       <c r="A45" s="55" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="56">
         <v>0.0432</v>
@@ -2374,7 +2371,7 @@
     </row>
     <row r="46">
       <c r="A46" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B46" s="56">
         <v>0.0436</v>
@@ -2391,7 +2388,7 @@
     </row>
     <row r="47">
       <c r="A47" s="55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="56">
         <v>0.0441</v>
@@ -2408,7 +2405,7 @@
     </row>
     <row r="48">
       <c r="A48" s="55" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B48" s="56">
         <v>0.0444</v>
@@ -2425,7 +2422,7 @@
     </row>
     <row r="49">
       <c r="A49" s="55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B49" s="56">
         <v>0.0447</v>
@@ -2442,7 +2439,7 @@
     </row>
     <row r="50">
       <c r="A50" s="55" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B50" s="56">
         <v>0.045</v>
@@ -2459,7 +2456,7 @@
     </row>
     <row r="51">
       <c r="A51" s="55" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B51" s="56">
         <v>0.0452</v>
@@ -2476,7 +2473,7 @@
     </row>
     <row r="52">
       <c r="A52" s="55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B52" s="58">
         <v>0.0453</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="53">
       <c r="A53" s="59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B53" s="60">
         <v>0.0454</v>
@@ -2510,7 +2507,7 @@
     </row>
     <row r="54">
       <c r="A54" s="51" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B54" s="52">
         <v>0.0455</v>
@@ -2527,7 +2524,7 @@
     </row>
     <row r="55">
       <c r="A55" s="55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B55" s="56">
         <v>0.0456</v>
@@ -2544,7 +2541,7 @@
     </row>
     <row r="56">
       <c r="A56" s="55" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B56" s="56">
         <v>0.0456</v>
@@ -2561,7 +2558,7 @@
     </row>
     <row r="57">
       <c r="A57" s="55" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="56">
         <v>0.0456</v>
@@ -2578,7 +2575,7 @@
     </row>
     <row r="58">
       <c r="A58" s="55" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B58" s="56"/>
       <c r="C58" s="62"/>
@@ -2587,7 +2584,7 @@
     </row>
     <row r="59">
       <c r="A59" s="55" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B59" s="56"/>
       <c r="C59" s="62"/>
@@ -2596,7 +2593,7 @@
     </row>
     <row r="60">
       <c r="A60" s="55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" s="56"/>
       <c r="C60" s="62"/>
@@ -2605,7 +2602,7 @@
     </row>
     <row r="61">
       <c r="A61" s="55" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" s="56"/>
       <c r="C61" s="62"/>
@@ -2614,7 +2611,7 @@
     </row>
     <row r="62">
       <c r="A62" s="55" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" s="56"/>
       <c r="C62" s="62"/>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="63">
       <c r="A63" s="55" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B63" s="56"/>
       <c r="C63" s="62"/>
@@ -2632,7 +2629,7 @@
     </row>
     <row r="64">
       <c r="A64" s="55" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" s="67"/>
       <c r="C64" s="68"/>
@@ -2641,7 +2638,7 @@
     </row>
     <row r="65">
       <c r="A65" s="59" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" s="69"/>
       <c r="C65" s="70"/>
@@ -2650,7 +2647,7 @@
     </row>
     <row r="66">
       <c r="A66" s="51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B66" s="52"/>
       <c r="C66" s="66"/>
@@ -2659,7 +2656,7 @@
     </row>
     <row r="67">
       <c r="A67" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B67" s="56"/>
       <c r="C67" s="62"/>
@@ -2668,7 +2665,7 @@
     </row>
     <row r="68">
       <c r="A68" s="55" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B68" s="56"/>
       <c r="C68" s="62"/>
@@ -2677,7 +2674,7 @@
     </row>
     <row r="69">
       <c r="A69" s="55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B69" s="56"/>
       <c r="C69" s="62"/>
@@ -2686,7 +2683,7 @@
     </row>
     <row r="70">
       <c r="A70" s="55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B70" s="56"/>
       <c r="C70" s="62"/>
@@ -2695,7 +2692,7 @@
     </row>
     <row r="71">
       <c r="A71" s="55" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B71" s="56"/>
       <c r="C71" s="62"/>
@@ -2704,7 +2701,7 @@
     </row>
     <row r="72">
       <c r="A72" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" s="56"/>
       <c r="C72" s="62"/>
@@ -2713,7 +2710,7 @@
     </row>
     <row r="73">
       <c r="A73" s="55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B73" s="56"/>
       <c r="C73" s="62"/>
@@ -2722,7 +2719,7 @@
     </row>
     <row r="74">
       <c r="A74" s="55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B74" s="56"/>
       <c r="C74" s="62"/>
@@ -2731,7 +2728,7 @@
     </row>
     <row r="75">
       <c r="A75" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B75" s="56"/>
       <c r="C75" s="62"/>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="76">
       <c r="A76" s="55" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B76" s="67"/>
       <c r="C76" s="68"/>
@@ -2749,7 +2746,7 @@
     </row>
     <row r="77">
       <c r="A77" s="59" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B77" s="69"/>
       <c r="C77" s="70"/>
@@ -2784,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>9</v>
@@ -2832,7 +2829,7 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="79">
         <f>D2</f>
@@ -2840,7 +2837,7 @@
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="81" t="s">
@@ -2849,27 +2846,27 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="82" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="C5" s="82" t="s">
         <v>107</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="D5" s="82" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="82" t="s">
+      <c r="E5" s="82" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="82" t="s">
+      <c r="F5" s="83" t="s">
         <v>110</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="84" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B6" s="85">
         <v>0.0456</v>
@@ -2887,7 +2884,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="88" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B7" s="86">
         <v>0.0834</v>
@@ -2903,7 +2900,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B8" s="86">
         <v>0.0409</v>
@@ -2919,7 +2916,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B9" s="86">
         <v>0.0402</v>
@@ -2935,7 +2932,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="88" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B10" s="86">
         <v>0.0274</v>
@@ -2951,7 +2948,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B11" s="86">
         <v>0.0299</v>
@@ -2967,7 +2964,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B12" s="86">
         <v>0.0566</v>
@@ -2983,7 +2980,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="88" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="85">
         <v>0.037</v>
@@ -2999,7 +2996,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="88" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" s="85">
         <v>0.0395</v>
@@ -3015,7 +3012,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="86">
         <v>0.0524</v>
@@ -3067,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>9</v>
@@ -3117,7 +3114,7 @@
     </row>
     <row r="4" ht="13.5" customHeight="1">
       <c r="A4" s="78" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="79">
         <f>D2</f>
@@ -3125,7 +3122,7 @@
       </c>
       <c r="C4" s="41"/>
       <c r="D4" s="80" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="41"/>
       <c r="F4" s="81" t="s">
@@ -3134,27 +3131,27 @@
     </row>
     <row r="5" ht="25.5" customHeight="1">
       <c r="A5" s="82" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="82" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" s="82" t="s">
         <v>122</v>
       </c>
-      <c r="B5" s="82" t="s">
-        <v>107</v>
-      </c>
-      <c r="C5" s="82" t="s">
-        <v>108</v>
-      </c>
-      <c r="D5" s="82" t="s">
-        <v>123</v>
-      </c>
       <c r="E5" s="82" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="83" t="s">
         <v>110</v>
-      </c>
-      <c r="F5" s="83" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
       <c r="A6" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6" s="91">
         <v>0.0282</v>
@@ -3170,7 +3167,7 @@
     </row>
     <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B7" s="92">
         <v>0.0635</v>
@@ -3186,7 +3183,7 @@
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="92">
         <v>0.0401</v>
@@ -3202,7 +3199,7 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B9" s="92">
         <v>0.0177</v>
@@ -3218,7 +3215,7 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="94" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" s="92">
         <v>0.0598</v>
@@ -3234,7 +3231,7 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="94" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="92">
         <v>0.0373</v>
@@ -3250,7 +3247,7 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="94" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B12" s="92">
         <v>0.0256</v>
@@ -3266,7 +3263,7 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="94" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B13" s="91">
         <v>0.068</v>
@@ -3282,7 +3279,7 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B14" s="91">
         <v>0.0382</v>
@@ -3298,7 +3295,7 @@
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B15" s="92">
         <v>0.057</v>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B16" s="92">
         <v>0.0533</v>
@@ -3330,7 +3327,7 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="94" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B17" s="92">
         <v>0.0337</v>
@@ -3346,7 +3343,7 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="94" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="92">
         <v>0.0309</v>
@@ -3362,7 +3359,7 @@
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="94" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B19" s="92">
         <v>0.0175</v>
@@ -3378,7 +3375,7 @@
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="94" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B20" s="92">
         <v>0.0432</v>
@@ -3394,7 +3391,7 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="94" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B21" s="92">
         <v>0.0793</v>
@@ -3410,7 +3407,7 @@
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="94" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B22" s="92">
         <v>0.1627</v>
@@ -3426,7 +3423,7 @@
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="94" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B23" s="92">
         <v>0.0173</v>
@@ -3442,7 +3439,7 @@
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="94" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B24" s="92">
         <v>0.0497</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B25" s="92">
         <v>0.0225</v>
@@ -3474,7 +3471,7 @@
     </row>
     <row r="26" ht="12.75" customHeight="1">
       <c r="A26" s="94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B26" s="92">
         <v>0.0753</v>
@@ -3490,7 +3487,7 @@
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="94" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B27" s="92">
         <v>0.0194</v>
@@ -3506,7 +3503,7 @@
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="94" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B28" s="92">
         <v>0.0404</v>
@@ -3522,7 +3519,7 @@
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B29" s="92">
         <v>0.0568</v>
@@ -3538,7 +3535,7 @@
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="94" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B30" s="92">
         <v>0.0198</v>
@@ -3554,7 +3551,7 @@
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="94" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B31" s="92">
         <v>0.045</v>
@@ -3570,7 +3567,7 @@
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="94" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B32" s="92">
         <v>0.0283</v>
@@ -3586,7 +3583,7 @@
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="94" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" s="92">
         <v>0.0766</v>
@@ -3641,16 +3638,16 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="98" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="99" t="s">
+      <c r="D1" s="98" t="s">
         <v>153</v>
-      </c>
-      <c r="D1" s="98" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -3658,11 +3655,11 @@
         <v>44351.0</v>
       </c>
       <c r="B2" s="101" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="102"/>
       <c r="D2" s="101" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
